--- a/REGULAR/MAESTRECAMPO, LORENA ATE.xlsx
+++ b/REGULAR/MAESTRECAMPO, LORENA ATE.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LORIE MAESTRECAMPO\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="302">
   <si>
     <t>PERIOD</t>
   </si>
@@ -934,11 +934,17 @@
   <si>
     <t>Nov. 24, Dec. 9 &amp; 14</t>
   </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1183,7 +1189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,6 +1387,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1990,9 +2002,9 @@
   </sheetPr>
   <dimension ref="A2:K2467"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="11310" topLeftCell="A523"/>
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B501" sqref="B501"/>
       <selection pane="bottomLeft" activeCell="A523" sqref="A523"/>
     </sheetView>
   </sheetViews>
@@ -2163,7 +2175,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>255.60700000000003</v>
+        <v>260.60700000000003</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -11884,7 +11896,9 @@
       <c r="K494" s="21"/>
     </row>
     <row r="495" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A495" s="43"/>
+      <c r="A495" s="68" t="s">
+        <v>300</v>
+      </c>
       <c r="B495" s="21"/>
       <c r="C495" s="14"/>
       <c r="D495" s="42"/>
@@ -11897,9 +11911,13 @@
       <c r="K495" s="21"/>
     </row>
     <row r="496" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A496" s="43"/>
+      <c r="A496" s="24" t="s">
+        <v>48</v>
+      </c>
       <c r="B496" s="21"/>
-      <c r="C496" s="14"/>
+      <c r="C496" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D496" s="42"/>
       <c r="E496" s="10"/>
       <c r="F496" s="21"/>
@@ -11910,9 +11928,13 @@
       <c r="K496" s="21"/>
     </row>
     <row r="497" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A497" s="43"/>
+      <c r="A497" s="24" t="s">
+        <v>53</v>
+      </c>
       <c r="B497" s="21"/>
-      <c r="C497" s="14"/>
+      <c r="C497" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D497" s="42"/>
       <c r="E497" s="10"/>
       <c r="F497" s="21"/>
@@ -11923,9 +11945,13 @@
       <c r="K497" s="21"/>
     </row>
     <row r="498" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A498" s="43"/>
+      <c r="A498" s="24" t="s">
+        <v>54</v>
+      </c>
       <c r="B498" s="21"/>
-      <c r="C498" s="14"/>
+      <c r="C498" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D498" s="42"/>
       <c r="E498" s="10"/>
       <c r="F498" s="21"/>
@@ -11936,9 +11962,13 @@
       <c r="K498" s="21"/>
     </row>
     <row r="499" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A499" s="43"/>
+      <c r="A499" s="24" t="s">
+        <v>55</v>
+      </c>
       <c r="B499" s="21"/>
-      <c r="C499" s="14"/>
+      <c r="C499" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D499" s="42"/>
       <c r="E499" s="10"/>
       <c r="F499" s="21"/>
@@ -11949,8 +11979,12 @@
       <c r="K499" s="21"/>
     </row>
     <row r="500" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A500" s="43"/>
-      <c r="B500" s="21"/>
+      <c r="A500" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B500" s="21" t="s">
+        <v>301</v>
+      </c>
       <c r="C500" s="14"/>
       <c r="D500" s="42"/>
       <c r="E500" s="10"/>
@@ -11959,7 +11993,9 @@
       <c r="H500" s="42"/>
       <c r="I500" s="10"/>
       <c r="J500" s="12"/>
-      <c r="K500" s="21"/>
+      <c r="K500" s="69">
+        <v>45070</v>
+      </c>
     </row>
     <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="43"/>
